--- a/Backlog e Trello/backlog do projeto.xlsx
+++ b/Backlog e Trello/backlog do projeto.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/pedro_lima_sptech_school/Documents/Projeto_Pessoal/Projeto-Individual/Backlog/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/pedro_lima_sptech_school/Documents/Projeto_Pessoal/Projeto-Individual/Backlog e Trello/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D94BCE6F-7B2E-45DB-8369-8C87DEA73CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{D94BCE6F-7B2E-45DB-8369-8C87DEA73CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6903957-7EEE-4417-B0A1-1C0C4B8B7B9C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0E0016B3-93BA-4D18-9C80-DD85B808CAD5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
   <si>
     <t>Projeto Individual - Pedro Henrique</t>
   </si>
@@ -167,10 +167,16 @@
     <t>GG</t>
   </si>
   <si>
-    <t>Cloncluido</t>
-  </si>
-  <si>
     <t>Em andamento</t>
+  </si>
+  <si>
+    <t>Concluido</t>
+  </si>
+  <si>
+    <t>Telas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telas mosrando os filmes </t>
   </si>
 </sst>
 </file>
@@ -621,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA93FA3-CD13-47D6-974E-556445CD5C65}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -709,7 +715,7 @@
         <v>45623</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -735,7 +741,7 @@
         <v>45623</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -761,7 +767,7 @@
         <v>45623</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -787,7 +793,7 @@
         <v>45623</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -813,41 +819,39 @@
         <v>45623</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F9" s="3">
         <v>3</v>
       </c>
-      <c r="G9" s="5">
-        <v>45623</v>
-      </c>
+      <c r="G9" s="5"/>
       <c r="H9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>36</v>
@@ -865,15 +869,15 @@
         <v>45623</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>36</v>
@@ -890,19 +894,19 @@
       <c r="G11" s="5">
         <v>45623</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>41</v>
@@ -916,112 +920,138 @@
       <c r="G12" s="5">
         <v>45623</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" s="5">
         <v>45623</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" s="3">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" s="5">
         <v>45623</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="3">
         <v>21</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3</v>
       </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
       <c r="G15" s="5">
         <v>45623</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
+        <v>45623</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="3">
         <v>5</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F17" s="3">
         <v>2</v>
       </c>
-      <c r="G16" s="5">
-        <v>45623</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>44</v>
+      <c r="G17" s="5">
+        <v>45623</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog e Trello/backlog do projeto.xlsx
+++ b/Backlog e Trello/backlog do projeto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/pedro_lima_sptech_school/Documents/Projeto_Pessoal/Projeto-Individual/Backlog e Trello/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{D94BCE6F-7B2E-45DB-8369-8C87DEA73CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6903957-7EEE-4417-B0A1-1C0C4B8B7B9C}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{D94BCE6F-7B2E-45DB-8369-8C87DEA73CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44F6D6D9-9FF4-4D79-9412-5CBFBFD6A369}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0E0016B3-93BA-4D18-9C80-DD85B808CAD5}"/>
+    <workbookView xWindow="1644" yWindow="2484" windowWidth="17280" windowHeight="8880" xr2:uid="{0E0016B3-93BA-4D18-9C80-DD85B808CAD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
   <si>
     <t>Projeto Individual - Pedro Henrique</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t xml:space="preserve">Telas mosrando os filmes </t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>home para logar</t>
   </si>
 </sst>
 </file>
@@ -308,6 +314,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -627,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA93FA3-CD13-47D6-974E-556445CD5C65}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="95" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -841,26 +851,28 @@
       <c r="F9" s="3">
         <v>3</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5">
+        <v>45623</v>
+      </c>
       <c r="H9" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" s="3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F10" s="3">
         <v>3</v>
@@ -868,16 +880,16 @@
       <c r="G10" s="5">
         <v>45623</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>43</v>
+      <c r="H10" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>36</v>
@@ -894,16 +906,16 @@
       <c r="G11" s="5">
         <v>45623</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>44</v>
+      <c r="H11" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>36</v>
@@ -926,13 +938,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>41</v>
@@ -946,28 +958,28 @@
       <c r="G13" s="5">
         <v>45623</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>43</v>
+      <c r="H13" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" s="5">
         <v>45623</v>
@@ -978,22 +990,22 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E15" s="3">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" s="5">
         <v>45623</v>
@@ -1004,53 +1016,79 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="3">
         <v>21</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
         <v>3</v>
       </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
       <c r="G16" s="5">
         <v>45623</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>44</v>
+      <c r="H16" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>45623</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E18" s="3">
         <v>5</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F18" s="3">
         <v>2</v>
       </c>
-      <c r="G17" s="5">
-        <v>45623</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="G18" s="5">
+        <v>45623</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>43</v>
       </c>
     </row>

--- a/Backlog e Trello/backlog do projeto.xlsx
+++ b/Backlog e Trello/backlog do projeto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/pedro_lima_sptech_school/Documents/Projeto_Pessoal/Projeto-Individual/Backlog e Trello/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{D94BCE6F-7B2E-45DB-8369-8C87DEA73CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44F6D6D9-9FF4-4D79-9412-5CBFBFD6A369}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{D94BCE6F-7B2E-45DB-8369-8C87DEA73CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2ECAFC8F-BEE3-4646-8062-E38AA42DA974}"/>
   <bookViews>
-    <workbookView xWindow="1644" yWindow="2484" windowWidth="17280" windowHeight="8880" xr2:uid="{0E0016B3-93BA-4D18-9C80-DD85B808CAD5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0E0016B3-93BA-4D18-9C80-DD85B808CAD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
   <si>
     <t>Projeto Individual - Pedro Henrique</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>GG</t>
-  </si>
-  <si>
-    <t>Em andamento</t>
   </si>
   <si>
     <t>Concluido</t>
@@ -213,7 +210,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,6 +232,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF104A4A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,7 +280,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -293,6 +295,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA93FA3-CD13-47D6-974E-556445CD5C65}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="95" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="95" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,444 +656,447 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>3</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="5">
-        <v>45623</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="4">
+        <v>45623</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>45623</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>45623</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>45623</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>45623</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3</v>
+      </c>
+      <c r="G9" s="4">
+        <v>45623</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E10" s="2">
         <v>5</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F10" s="2">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4">
+        <v>45623</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="2">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4">
+        <v>45623</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="2">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
+      <c r="G12" s="4">
+        <v>45623</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="2">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
+      <c r="G13" s="4">
+        <v>45623</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="2">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3</v>
+      </c>
+      <c r="G14" s="4">
+        <v>45623</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="2">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4">
+        <v>45623</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="2">
+        <v>21</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+      <c r="G16" s="4">
+        <v>45623</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="5">
-        <v>45623</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="G17" s="4">
+        <v>45623</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E18" s="2">
         <v>5</v>
       </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5">
-        <v>45623</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="3">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5">
-        <v>45623</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="3">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="F18" s="2">
         <v>2</v>
       </c>
-      <c r="G8" s="5">
-        <v>45623</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="3">
-        <v>8</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3</v>
-      </c>
-      <c r="G9" s="5">
-        <v>45623</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="3">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3</v>
-      </c>
-      <c r="G10" s="5">
-        <v>45623</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="3">
-        <v>13</v>
-      </c>
-      <c r="F11" s="3">
-        <v>3</v>
-      </c>
-      <c r="G11" s="5">
-        <v>45623</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="3">
-        <v>13</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3</v>
-      </c>
-      <c r="G12" s="5">
-        <v>45623</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="3">
-        <v>13</v>
-      </c>
-      <c r="F13" s="3">
-        <v>3</v>
-      </c>
-      <c r="G13" s="5">
-        <v>45623</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="3">
-        <v>13</v>
-      </c>
-      <c r="F14" s="3">
-        <v>3</v>
-      </c>
-      <c r="G14" s="5">
-        <v>45623</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="3">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2</v>
-      </c>
-      <c r="G15" s="5">
-        <v>45623</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="3">
-        <v>21</v>
-      </c>
-      <c r="F16" s="3">
-        <v>3</v>
-      </c>
-      <c r="G16" s="5">
-        <v>45623</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5">
-        <v>45623</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2</v>
-      </c>
-      <c r="G18" s="5">
-        <v>45623</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="G18" s="4">
+        <v>45623</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
